--- a/tournaments/2018-mens-world-cup.xlsx
+++ b/tournaments/2018-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C70F0B-26F7-4D98-B898-9C94772768DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1555FC81-143C-4493-9562-D6D9289C30E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2627" yWindow="2700" windowWidth="19200" windowHeight="10073" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="155">
   <si>
     <t>A1</t>
   </si>
@@ -227,12 +227,6 @@
   </si>
   <si>
     <t>match</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>away</t>
   </si>
   <si>
     <t>time</t>
@@ -493,24 +487,15 @@
     <t>venue.12</t>
   </si>
   <si>
-    <t>Luzhniki Stadium, Moscow</t>
-  </si>
-  <si>
     <t>Ekaterinburg Stadium</t>
   </si>
   <si>
     <t>Saint Petersburg Stadium</t>
   </si>
   <si>
-    <t>Fisht Stadium, Sochi</t>
-  </si>
-  <si>
     <t>Kazan Arena</t>
   </si>
   <si>
-    <t>Otkrytiye Arena, Moscow</t>
-  </si>
-  <si>
     <t>Saransk Stadium</t>
   </si>
   <si>
@@ -529,146 +514,31 @@
     <t>Volgograd Stadium</t>
   </si>
   <si>
-    <t>14/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>15/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>15/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>15/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>16/06/2018 10:00</t>
-  </si>
-  <si>
-    <t>16/06/2018 13:00</t>
-  </si>
-  <si>
-    <t>16/06/2018 16:00</t>
-  </si>
-  <si>
-    <t>16/06/2018 19:00</t>
-  </si>
-  <si>
-    <t>17/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>17/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>17/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>18/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>18/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>18/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>19/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>19/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>19/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>20/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>20/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>20/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>21/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>21/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>21/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>22/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>22/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>22/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>23/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>23/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>23/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>24/06/2018 12:00</t>
-  </si>
-  <si>
-    <t>24/06/2018 15:00</t>
-  </si>
-  <si>
-    <t>24/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>25/06/2018 14:00</t>
-  </si>
-  <si>
-    <t>25/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>26/06/2018 14:00</t>
-  </si>
-  <si>
-    <t>26/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>27/06/2018 14:00</t>
-  </si>
-  <si>
-    <t>27/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>28/06/2018 14:00</t>
-  </si>
-  <si>
-    <t>28/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>30/06/2018 14:00</t>
-  </si>
-  <si>
-    <t>30/06/2018 18:00</t>
-  </si>
-  <si>
-    <t>14/07/2018 14:00</t>
-  </si>
-  <si>
-    <t>15/07/2018 15:00</t>
+    <t>Luzhniki Stadium</t>
+  </si>
+  <si>
+    <t>Fisht Stadium</t>
+  </si>
+  <si>
+    <t>Otkrytiye Arena</t>
+  </si>
+  <si>
+    <t>home-team</t>
+  </si>
+  <si>
+    <t>away-team</t>
+  </si>
+  <si>
+    <t>home-seed</t>
+  </si>
+  <si>
+    <t>away-seed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -710,34 +580,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,20 +646,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:I65" totalsRowShown="0">
-  <autoFilter ref="A1:I65" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:K65" totalsRowShown="0">
+  <autoFilter ref="A1:K65" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
-    <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home"/>
-    <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away"/>
-    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="0">
-      <calculatedColumnFormula>DATEVALUE(matches[[#This Row],[time]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
+    <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
+    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{398EE86D-DB71-4B07-BCF3-5E13F225DA53}" name="venue" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{68E01095-6C68-42AF-8716-32FC9C3B5D8B}" name="home-team" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2CDCD506-6640-41AE-846E-162E81849C6B}" name="away-team" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,7 +979,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1120,174 +995,174 @@
     <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1302,51 +1177,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.64453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.9375" style="1"/>
+    <col min="10" max="10" width="12.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.17578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1356,19 +1239,28 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D2" s="3">
+        <v>43265.625</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1378,19 +1270,28 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D3" s="3">
+        <v>43266.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1400,19 +1301,28 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D4" s="3">
+        <v>43266.75</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1422,19 +1332,28 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D5" s="3">
+        <v>43266.625</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1444,19 +1363,28 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D6" s="3">
+        <v>43267.416666666664</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1466,19 +1394,28 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D7" s="3">
+        <v>43267.666666666664</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1488,19 +1425,28 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D8" s="3">
+        <v>43267.541666666664</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1510,19 +1456,28 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D9" s="3">
+        <v>43267.791666666664</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1532,19 +1487,28 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D10" s="3">
+        <v>43268.75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1554,19 +1518,28 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D11" s="3">
+        <v>43268.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1576,19 +1549,28 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D12" s="3">
+        <v>43268.625</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1598,19 +1580,28 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D13" s="3">
+        <v>43269.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1620,19 +1611,28 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D14" s="3">
+        <v>43269.625</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1642,19 +1642,28 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D15" s="3">
+        <v>43269.75</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1664,19 +1673,28 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D16" s="3">
+        <v>43270.625</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1686,19 +1704,28 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D17" s="3">
+        <v>43270.5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1708,19 +1735,28 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D18" s="3">
+        <v>43270.75</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1730,19 +1766,28 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D19" s="3">
+        <v>43271.625</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1752,19 +1797,28 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D20" s="3">
+        <v>43271.5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1774,19 +1828,28 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D21" s="3">
+        <v>43271.75</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1796,19 +1859,28 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D22" s="3">
+        <v>43272.625</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1818,19 +1890,28 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D23" s="3">
+        <v>43272.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1840,19 +1921,28 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D24" s="3">
+        <v>43272.75</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1862,19 +1952,28 @@
       <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D25" s="3">
+        <v>43273.625</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1884,19 +1983,28 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D26" s="3">
+        <v>43273.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1906,19 +2014,28 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D27" s="3">
+        <v>43273.75</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1928,19 +2045,28 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D28" s="3">
+        <v>43274.75</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1950,19 +2076,28 @@
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D29" s="3">
+        <v>43274.625</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1972,19 +2107,28 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D30" s="3">
+        <v>43274.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1994,19 +2138,28 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D31" s="3">
+        <v>43275.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="2">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2016,19 +2169,28 @@
       <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D32" s="3">
+        <v>43275.75</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2038,19 +2200,28 @@
       <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D33" s="3">
+        <v>43275.625</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2060,19 +2231,28 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D34" s="3">
+        <v>43276.583333333336</v>
+      </c>
+      <c r="E34" s="2">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2082,19 +2262,28 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D35" s="3">
+        <v>43276.583333333336</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2104,19 +2293,28 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D36" s="3">
+        <v>43276.75</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2126,19 +2324,28 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D37" s="3">
+        <v>43276.75</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2148,19 +2355,28 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D38" s="3">
+        <v>43277.583333333336</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2170,19 +2386,28 @@
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D39" s="3">
+        <v>43277.583333333336</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2192,19 +2417,28 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D40" s="3">
+        <v>43277.75</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2214,19 +2448,28 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D41" s="3">
+        <v>43277.75</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2236,19 +2479,28 @@
       <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D42" s="3">
+        <v>43278.75</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2258,19 +2510,28 @@
       <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D43" s="3">
+        <v>43278.75</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2280,19 +2541,28 @@
       <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D44" s="3">
+        <v>43278.583333333336</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2302,19 +2572,28 @@
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D45" s="3">
+        <v>43278.583333333336</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2324,19 +2603,28 @@
       <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D46" s="3">
+        <v>43279.75</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2346,19 +2634,28 @@
       <c r="C47" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D47" s="3">
+        <v>43279.75</v>
+      </c>
+      <c r="E47" s="2">
+        <v>7</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2368,19 +2665,28 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D48" s="3">
+        <v>43279.583333333336</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2390,63 +2696,90 @@
       <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="D49" s="3">
+        <v>43279.583333333336</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+      <c r="D50" s="3">
+        <v>43281.75</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+      <c r="D51" s="3">
+        <v>43281.583333333336</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="2">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2457,18 +2790,31 @@
         <v>37</v>
       </c>
       <c r="D52" s="3">
-        <v>43107.583333333336</v>
-      </c>
-      <c r="E52" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43282.583333333336</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>3</v>
+      </c>
+      <c r="K52" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2479,18 +2825,31 @@
         <v>39</v>
       </c>
       <c r="D53" s="3">
-        <v>43107.75</v>
-      </c>
-      <c r="E53" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43282.75</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>3</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2501,18 +2860,27 @@
         <v>41</v>
       </c>
       <c r="D54" s="3">
-        <v>43138.583333333336</v>
-      </c>
-      <c r="E54" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43283.583333333336</v>
+      </c>
+      <c r="E54" s="2">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2523,18 +2891,27 @@
         <v>43</v>
       </c>
       <c r="D55" s="3">
-        <v>43138.75</v>
-      </c>
-      <c r="E55" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43283.75</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2545,18 +2922,27 @@
         <v>45</v>
       </c>
       <c r="D56" s="3">
-        <v>43166.583333333336</v>
-      </c>
-      <c r="E56" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43284.583333333336</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2567,18 +2953,31 @@
         <v>47</v>
       </c>
       <c r="D57" s="3">
-        <v>43166.75</v>
-      </c>
-      <c r="E57" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43284.75</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3</v>
+      </c>
+      <c r="K57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2589,18 +2988,27 @@
         <v>49</v>
       </c>
       <c r="D58" s="3">
-        <v>43258.583333333336</v>
-      </c>
-      <c r="E58" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43287.583333333336</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2611,18 +3019,27 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>43258.75</v>
-      </c>
-      <c r="E59" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43287.75</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="2">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2633,18 +3050,31 @@
         <v>55</v>
       </c>
       <c r="D60" s="3">
-        <v>43288.583333333336</v>
-      </c>
-      <c r="E60" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43288.75</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3</v>
+      </c>
+      <c r="K60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2655,18 +3085,27 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>43288.75</v>
-      </c>
-      <c r="E61" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43288.583333333336</v>
+      </c>
+      <c r="E61" s="2">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2677,18 +3116,27 @@
         <v>57</v>
       </c>
       <c r="D62" s="3">
-        <v>43380.75</v>
-      </c>
-      <c r="E62" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43291.75</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2699,40 +3147,58 @@
         <v>59</v>
       </c>
       <c r="D63" s="3">
-        <v>43411.75</v>
-      </c>
-      <c r="E63" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+        <v>43292.75</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E64" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+        <v>92</v>
+      </c>
+      <c r="D64" s="3">
+        <v>43295.583333333336</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2742,17 +3208,26 @@
       <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" t="e">
-        <f>DATEVALUE(matches[[#This Row],[time]])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="D65" s="3">
+        <v>43296.625</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="2">
+        <v>4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>2</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2767,277 +3242,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="8.9375" style="2"/>
+    <col min="2" max="2" width="8.9375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
+      <c r="B4" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>90</v>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>71</v>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>82</v>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>121</v>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>76</v>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>72</v>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>122</v>
+      <c r="B15" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>79</v>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>123</v>
+      <c r="B17" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>88</v>
+      <c r="B20" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>77</v>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>75</v>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>124</v>
+      <c r="B24" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>87</v>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>70</v>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>125</v>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>83</v>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>73</v>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>81</v>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>80</v>
+      <c r="B31" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>126</v>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>86</v>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tournaments/2018-mens-world-cup.xlsx
+++ b/tournaments/2018-mens-world-cup.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1555FC81-143C-4493-9562-D6D9289C30E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB9A5CA-5971-4D9A-8C91-700C785F6DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="3273" yWindow="3273" windowWidth="19200" windowHeight="10074" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
     <sheet name="Matches" sheetId="1" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
   <si>
     <t>A1</t>
   </si>
@@ -533,6 +534,81 @@
   </si>
   <si>
     <t>away-seed</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>#94d9f5</t>
+  </si>
+  <si>
+    <t>pale cyan</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>#fee289</t>
+  </si>
+  <si>
+    <t>pale yellow</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>#f79d8f</t>
+  </si>
+  <si>
+    <t>pale red</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>#c4e1b5</t>
+  </si>
+  <si>
+    <t>pale green</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>#b0d0ee</t>
+  </si>
+  <si>
+    <t>pale blue</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>#c0e4df</t>
+  </si>
+  <si>
+    <t>pale teal</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>#fab077</t>
+  </si>
+  <si>
+    <t>pale orange</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>#eecbef</t>
+  </si>
+  <si>
+    <t>pale purple</t>
   </si>
 </sst>
 </file>
@@ -580,10 +656,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -671,6 +745,25 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0AEBB99-51D0-46B6-ACD7-C4F2DC461A4C}" name="seed"/>
     <tableColumn id="3" xr3:uid="{DD8C8688-8EED-4B48-9C61-D766CD3EFBBB}" name="team"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D90DA66-9083-46D7-BA4F-82B790147407}" name="groups" displayName="groups" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{88EE909C-168A-4B2F-B567-03E45EA308EE}" name="key"/>
+    <tableColumn id="2" xr3:uid="{9507E86E-E495-4A60-A1C2-B22B68769689}" name="en"/>
+    <tableColumn id="3" xr3:uid="{C9200991-F3E3-4176-89AD-04BCE044B1C6}" name="es"/>
+    <tableColumn id="4" xr3:uid="{1C7242BE-C401-4B86-9194-9D006617A6C1}" name="it"/>
+    <tableColumn id="5" xr3:uid="{2AF12BA5-BC5B-491C-88CA-D0E57D581F16}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{1D61E46B-3B2C-4922-9B65-C97BF9F3EF2D}" name="de"/>
+    <tableColumn id="7" xr3:uid="{6243B05C-6BAE-4D3D-9B50-8E8C73F0BCD4}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{6119E755-9CCC-4ABE-99D9-63CBF4D891CB}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{12D54549-EC84-4A42-ACAB-B413320B4F44}" name="fa"/>
+    <tableColumn id="10" xr3:uid="{1AF993A1-3EBC-4103-B829-4C6FDE197432}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -995,77 +1088,77 @@
     <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>132</v>
       </c>
       <c r="H3" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1086,7 +1179,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
@@ -1094,7 +1187,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>103</v>
       </c>
       <c r="B8" t="s">
@@ -1102,7 +1195,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>104</v>
       </c>
       <c r="B9" t="s">
@@ -1110,7 +1203,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>105</v>
       </c>
       <c r="B10" t="s">
@@ -1118,47 +1211,47 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>138</v>
       </c>
       <c r="B16" t="s">
@@ -1179,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -1188,10 +1281,9 @@
     <col min="2" max="2" width="7.64453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.9375" style="1"/>
-    <col min="10" max="10" width="12.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.17578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.17578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
@@ -1207,25 +1299,25 @@
       <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1239,26 +1331,24 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>43265.625</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
@@ -1270,26 +1360,24 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>43266.5</v>
       </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
@@ -1301,26 +1389,24 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>43266.75</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
@@ -1332,26 +1418,24 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>43266.625</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
@@ -1363,26 +1447,24 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>43267.416666666664</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
@@ -1394,26 +1476,24 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>43267.666666666664</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
@@ -1425,26 +1505,24 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>43267.541666666664</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
@@ -1456,26 +1534,24 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>43267.791666666664</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
@@ -1487,26 +1563,24 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>43268.75</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
@@ -1518,26 +1592,24 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>43268.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
@@ -1549,26 +1621,24 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>43268.625</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
@@ -1580,26 +1650,24 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>43269.5</v>
       </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
@@ -1611,26 +1679,24 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>43269.625</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15">
@@ -1642,26 +1708,24 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>43269.75</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16">
@@ -1673,28 +1737,26 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>43270.625</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1704,28 +1766,26 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>43270.5</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>2</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1735,28 +1795,26 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>43270.75</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1766,28 +1824,26 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>43271.625</v>
       </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1797,28 +1853,26 @@
       <c r="C20" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>43271.5</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1828,28 +1882,26 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>43271.75</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1859,28 +1911,26 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>43272.625</v>
       </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1890,28 +1940,26 @@
       <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>43272.5</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1921,28 +1969,26 @@
       <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>43272.75</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1952,28 +1998,26 @@
       <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>43273.625</v>
       </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="2">
-        <v>2</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1983,28 +2027,26 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>43273.5</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2014,28 +2056,26 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>43273.75</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>8</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2045,28 +2085,26 @@
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>43274.75</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>122</v>
       </c>
-      <c r="H28" s="2">
-        <v>2</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2076,28 +2114,26 @@
       <c r="C29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>43274.625</v>
       </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2107,28 +2143,26 @@
       <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>43274.5</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="2">
-        <v>2</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2138,28 +2172,26 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>43275.5</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2169,28 +2201,26 @@
       <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>43275.75</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2200,28 +2230,26 @@
       <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>43275.625</v>
       </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="2">
-        <v>2</v>
-      </c>
-      <c r="I33" s="2">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2231,28 +2259,26 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>43276.583333333336</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>9</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2262,28 +2288,26 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>43276.583333333336</v>
       </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="2">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2293,28 +2317,26 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>43276.75</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>7</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2324,28 +2346,26 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>43276.75</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>8</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="2">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2355,28 +2375,26 @@
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>43277.583333333336</v>
       </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2386,28 +2404,26 @@
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>43277.583333333336</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>119</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="2">
-        <v>2</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2417,28 +2433,26 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>43277.75</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>3</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>2</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2448,28 +2462,26 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>43277.75</v>
       </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>77</v>
       </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>2</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2479,28 +2491,26 @@
       <c r="C42" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>43278.75</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <v>6</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" t="s">
         <v>67</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="2">
-        <v>2</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2510,28 +2520,26 @@
       <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>43278.75</v>
       </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="2">
-        <v>2</v>
-      </c>
-      <c r="I43" s="2">
-        <v>2</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2541,28 +2549,26 @@
       <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>43278.583333333336</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" t="s">
         <v>75</v>
       </c>
-      <c r="H44" s="2">
-        <v>2</v>
-      </c>
-      <c r="I44" s="2">
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2572,28 +2578,26 @@
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>43278.583333333336</v>
       </c>
-      <c r="E45" s="2">
-        <v>2</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45">
         <v>3</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2603,28 +2607,26 @@
       <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>43279.75</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>8</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2634,28 +2636,26 @@
       <c r="C47" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>43279.75</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" t="s">
         <v>81</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>2</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2665,26 +2665,24 @@
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>43279.583333333336</v>
       </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" t="s">
         <v>79</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="I48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49">
@@ -2696,26 +2694,24 @@
       <c r="C49" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>43279.583333333336</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>9</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" t="s">
         <v>78</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" s="2">
-        <v>1</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="I49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50">
@@ -2727,26 +2723,24 @@
       <c r="C50" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>43281.75</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" t="s">
         <v>76</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" t="s">
         <v>72</v>
       </c>
-      <c r="H50" s="2">
-        <v>2</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51">
@@ -2758,26 +2752,24 @@
       <c r="C51" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>43281.583333333336</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
         <v>4</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52">
@@ -2789,28 +2781,28 @@
       <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>43282.583333333336</v>
       </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
         <v>82</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>117</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>3</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52">
         <v>4</v>
       </c>
     </row>
@@ -2824,28 +2816,28 @@
       <c r="C53" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>43282.75</v>
       </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
         <v>77</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
         <v>3</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53">
         <v>2</v>
       </c>
     </row>
@@ -2859,26 +2851,24 @@
       <c r="C54" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>43283.583333333336</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54">
         <v>9</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" t="s">
         <v>73</v>
       </c>
-      <c r="H54" s="2">
-        <v>2</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A55">
@@ -2890,26 +2880,24 @@
       <c r="C55" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>43283.75</v>
       </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
         <v>68</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" t="s">
         <v>84</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
         <v>3</v>
       </c>
-      <c r="I55" s="2">
-        <v>2</v>
-      </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="I55">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A56">
@@ -2921,26 +2909,24 @@
       <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>43284.583333333336</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>122</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57">
@@ -2952,28 +2938,28 @@
       <c r="C57" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>43284.75</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>124</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>3</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57">
         <v>4</v>
       </c>
     </row>
@@ -2987,26 +2973,24 @@
       <c r="C58" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>43287.583333333336</v>
       </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58" s="2">
-        <v>2</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="I58">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A59">
@@ -3018,26 +3002,24 @@
       <c r="C59" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>43287.75</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <v>5</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" t="s">
         <v>67</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="2">
-        <v>2</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A60">
@@ -3049,28 +3031,28 @@
       <c r="C60" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <v>43288.75</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="2">
-        <v>2</v>
-      </c>
-      <c r="I60" s="2">
-        <v>2</v>
-      </c>
-      <c r="J60" s="2">
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
         <v>3</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60">
         <v>4</v>
       </c>
     </row>
@@ -3084,26 +3066,24 @@
       <c r="C61" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <v>43288.583333333336</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61">
         <v>9</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" t="s">
         <v>71</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" s="2">
-        <v>2</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="I61">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A62">
@@ -3115,26 +3095,24 @@
       <c r="C62" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="1">
         <v>43291.75</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63">
@@ -3146,26 +3124,24 @@
       <c r="C63" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
         <v>43292.75</v>
       </c>
-      <c r="E63" s="2">
-        <v>1</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="2">
-        <v>2</v>
-      </c>
-      <c r="I63" s="2">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64">
@@ -3177,28 +3153,26 @@
       <c r="C64" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <v>43295.583333333336</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64">
         <v>3</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>68</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" t="s">
         <v>71</v>
       </c>
-      <c r="H64" s="2">
-        <v>2</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3208,26 +3182,24 @@
       <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
         <v>43296.625</v>
       </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>69</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" t="s">
         <v>77</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65">
         <v>4</v>
       </c>
-      <c r="I65" s="2">
-        <v>2</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="I65">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3247,15 +3219,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="2" max="2" width="8.9375" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3263,7 +3232,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3271,7 +3240,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3279,7 +3248,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3287,7 +3256,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3295,7 +3264,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3303,7 +3272,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3311,7 +3280,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3319,7 +3288,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3327,7 +3296,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3335,7 +3304,7 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3343,7 +3312,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3351,7 +3320,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3359,7 +3328,7 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3367,7 +3336,7 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3375,7 +3344,7 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3383,7 +3352,7 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3391,7 +3360,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3399,7 +3368,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3407,7 +3376,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3415,7 +3384,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3423,7 +3392,7 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3431,7 +3400,7 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3439,7 +3408,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3447,7 +3416,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3455,7 +3424,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3463,7 +3432,7 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3471,7 +3440,7 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3479,7 +3448,7 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3487,7 +3456,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3495,7 +3464,7 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3503,7 +3472,7 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3511,7 +3480,7 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3522,4 +3491,145 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88D2E7-F4E0-42E8-919E-CAB4A74488F8}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tournaments/2018-mens-world-cup.xlsx
+++ b/tournaments/2018-mens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB9A5CA-5971-4D9A-8C91-700C785F6DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D1D99-64D8-3F4F-96FB-3046410F3575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3273" yWindow="3273" windowWidth="19200" windowHeight="10074" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="3280" yWindow="3280" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="182">
   <si>
     <t>A1</t>
   </si>
@@ -609,6 +609,12 @@
   </si>
   <si>
     <t>pale purple</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>Europe/Moscow</t>
   </si>
 </sst>
 </file>
@@ -702,8 +708,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I16" totalsRowShown="0">
-  <autoFilter ref="A1:I16" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -770,9 +776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -810,7 +816,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -916,7 +922,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1058,7 +1064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1066,29 +1072,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.05859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.05859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -1162,99 +1168,107 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>100</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>101</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>102</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>103</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>104</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>106</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>137</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>138</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1276,17 +1290,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.64453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.29296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.46875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.17578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1321,7 +1335,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1379,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1437,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1466,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1495,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1524,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1553,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1582,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1611,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1640,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1698,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1756,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1785,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1814,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1872,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1901,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1930,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1959,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1988,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2017,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2046,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2075,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2104,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2133,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2162,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2191,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2220,7 +2234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2249,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2278,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2307,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2365,7 +2379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2394,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2423,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2452,7 +2466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2481,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2510,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2597,7 +2611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2626,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2655,7 +2669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2684,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2713,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2771,7 +2785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2841,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2870,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2928,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2963,7 +2977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2992,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3021,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3085,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3114,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3172,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3218,9 +3232,9 @@
       <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3228,7 +3242,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3236,7 +3250,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3266,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3260,7 +3274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3268,7 +3282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3284,7 +3298,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3292,7 +3306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +3330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3324,7 +3338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3348,7 +3362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3356,7 +3370,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3364,7 +3378,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3380,7 +3394,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3396,7 +3410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3412,7 +3426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3420,7 +3434,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3428,7 +3442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3436,7 +3450,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3444,7 +3458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3452,7 +3466,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3460,7 +3474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3468,7 +3482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3476,7 +3490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3497,16 +3511,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC88D2E7-F4E0-42E8-919E-CAB4A74488F8}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -3538,7 +3552,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -3549,7 +3563,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -3560,7 +3574,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -3571,7 +3585,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -3582,7 +3596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3593,7 +3607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -3604,7 +3618,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>177</v>
       </c>
